--- a/inst/shiny_apps/Slick/data/Resources.xlsx
+++ b/inst/shiny_apps/Slick/data/Resources.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\SLICK\inst\shiny_apps\SLICK\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Slick\inst\shiny_apps\Slick\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE8F06A-E178-462B-98BD-B0AA2DC95440}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1362C2A5-5D32-43D6-B1D6-0B27B09AE0C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Footnotes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>Heading</t>
   </si>
@@ -139,9 +138,6 @@
     <t>Pew 2019</t>
   </si>
   <si>
-    <t>Languages available: English, French, Spanish, Japanese, Korean, and Thai</t>
-  </si>
-  <si>
     <t>https://www.pewtrusts.org/en/research-and-analysis/issue-briefs/2019/11/harvest-strategies-21st-century-fisheries-management</t>
   </si>
   <si>
@@ -214,18 +210,9 @@
     <t>Fisheries Queensland: How do we use harvest strategies to manage fisheries?</t>
   </si>
   <si>
-    <t>Pew 2020</t>
-  </si>
-  <si>
     <t>Pew 2017</t>
   </si>
   <si>
-    <t>Fisheries Queensland</t>
-  </si>
-  <si>
-    <t>Languages available: English, with French and Spanish subtitles</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -248,13 +235,70 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>To Strengthen Fishery Management, RFMOs Should Use Science-Management Dialogue Groups</t>
+  </si>
+  <si>
+    <t>Pew 2022</t>
+  </si>
+  <si>
+    <t>Fisheries Queensland 2018</t>
+  </si>
+  <si>
+    <t>https://www.pewtrusts.org/en/research-and-analysis/issue-briefs/2022/05/to-strengthen-fishery-management-rfmos-should-use-science-management-dialogue-groups</t>
+  </si>
+  <si>
+    <t>Harveststrategies.org 2019</t>
+  </si>
+  <si>
+    <t>Harveststrategies.org 2020</t>
+  </si>
+  <si>
+    <t>https://harveststrategies.org/blog-new-animation-celebrates-the-remarkable-story-of-the-southern-bluefin-tuna/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=69k1h1HTrk4&amp;t=1s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ILMDQ-5GSM8</t>
+  </si>
+  <si>
+    <t>Harveststrategies.org 2022</t>
+  </si>
+  <si>
+    <t>Pew 2021</t>
+  </si>
+  <si>
+    <t>Southern Bluefin Tuna: A Harvest Strategies Success Story</t>
+  </si>
+  <si>
+    <t>How Harvest Strategies Bring Stability to the Seafood Supply Chain</t>
+  </si>
+  <si>
+    <t>Why Harvest Strategies Matter for Seafood Processors</t>
+  </si>
+  <si>
+    <t>Languages available: English, French, Spanish, Japanese, Chinese (Simplified and Traditional), Brazilian Portuguese and Thai</t>
+  </si>
+  <si>
+    <t>Languages available: English, French, Spanish, Japanese, Korean, Chinese (Simplified and Traditional), Brazilian Portuguese, Arabic and Thai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages available: English, Spanish </t>
+  </si>
+  <si>
+    <t>Languages available: English, with French, Spanish, Chinese (Simplified and Traditional), Brazilian Portuguese, and Arabic subtitles</t>
+  </si>
+  <si>
+    <t>Languages available: English, with French, Spanish and Bahasa Indonesia subtitles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +318,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,10 +346,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,22 +664,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BCF848-2089-42E2-BC37-D890040E83B2}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -645,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -659,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -673,10 +724,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -690,7 +741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -704,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -718,7 +769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -732,7 +783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -746,7 +797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -760,7 +811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -774,221 +825,286 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17">
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>62</v>
       </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
+      <c r="C28" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -997,45 +1113,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA77FDE-8E1A-4312-9D85-2D2877324688}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>65</v>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
